--- a/municipal/ENG/byKindOfEconomicActivity/Number of registered entities by kind of economic activity/Imereti/C. Kutaisi.xlsx
+++ b/municipal/ENG/byKindOfEconomicActivity/Number of registered entities by kind of economic activity/Imereti/C. Kutaisi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\მუნიციპალიტეტები\ბიზნეს რეგისტრი\ENG\Number of registered entities by kind of economic activity\Imereti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\regions\municipal\ENG\byKindOfEconomicActivity\Number of registered entities by kind of economic activity\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FC0BA8-1704-4633-B2AA-44FF500518E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="28740" yWindow="-60" windowWidth="28920" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kutaisi" sheetId="1" r:id="rId1"/>
@@ -99,13 +100,13 @@
     <t>Activity unknown</t>
   </si>
   <si>
-    <t>Number of entities registered in Kutaisi by kind of economic activity</t>
+    <t>Number of entities registered in C. Kutaisi by kind of economic activity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="###0"/>
@@ -280,13 +281,13 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,11 +569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
